--- a/data/analisis_estadistico.xlsx
+++ b/data/analisis_estadistico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY77"/>
+  <dimension ref="A1:BY65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="n">
         <v>341</v>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
         <v>342</v>
@@ -8232,21 +8232,21 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B26" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" t="n">
         <v>345</v>
       </c>
-      <c r="B26" t="n">
-        <v>67</v>
-      </c>
-      <c r="C26" t="n">
-        <v>346</v>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Greco, A., Marzi, C., Lanata, A., Scilingo, E. P., &amp; Vanello, N. (2019, July). Combining electrodermal activity and speech analysis towards a more accurate emotion recognition system. In 2019 41st Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC) (pp. 229-232). IEEE.</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -8265,14 +8265,16 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -8316,10 +8318,8 @@
       <c r="Y26" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Z26" t="n">
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8419,23 +8419,17 @@
       </c>
       <c r="BG26" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>55.78</t>
-        </is>
-      </c>
-      <c r="BI26" t="inlineStr">
-        <is>
-          <t>71.41</t>
-        </is>
-      </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
       </c>
       <c r="BK26" t="n">
         <v>0</v>
@@ -8485,21 +8479,21 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B27" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Tung, K., Liu, P. K., Chuang, Y. C., Wang, S. H., &amp; Wu, A. Y. A. (2018, December). Entropy-assisted multi-modal emotion recognition framework based on physiological signals. In 2018 IEEE-EMBS Conference on Biomedical Engineering and Sciences (IECBES) (pp. 22-26). IEEE.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -8518,7 +8512,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -8566,8 +8560,10 @@
       <c r="X27" t="n">
         <v>0</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0</v>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -8599,10 +8595,8 @@
       <c r="AI27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AJ27" t="n">
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -8670,25 +8664,19 @@
       <c r="BF27" t="n">
         <v>0</v>
       </c>
-      <c r="BG27" t="inlineStr">
-        <is>
-          <t>58.52</t>
-        </is>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>54.74</t>
-        </is>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
-          <t>51.19</t>
-        </is>
-      </c>
-      <c r="BJ27" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
+          <t>69.2</t>
+        </is>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
       </c>
       <c r="BK27" t="n">
         <v>0</v>
@@ -8738,21 +8726,21 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Tung, K., Liu, P. K., Chuang, Y. C., Wang, S. H., &amp; Wu, A. Y. A. (2018, December). Entropy-assisted multi-modal emotion recognition framework based on physiological signals. In 2018 IEEE-EMBS Conference on Biomedical Engineering and Sciences (IECBES) (pp. 22-26). IEEE.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -8777,53 +8765,53 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -8923,25 +8911,19 @@
       <c r="BF28" t="n">
         <v>0</v>
       </c>
-      <c r="BG28" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>54.79</t>
-        </is>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
-          <t>69.92</t>
-        </is>
-      </c>
-      <c r="BJ28" t="inlineStr">
-        <is>
-          <t>96.61</t>
-        </is>
+          <t>79.6</t>
+        </is>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
       </c>
       <c r="BK28" t="n">
         <v>0</v>
@@ -8991,21 +8973,21 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="B29" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -9042,14 +9024,14 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
@@ -9178,23 +9160,17 @@
       </c>
       <c r="BG29" t="inlineStr">
         <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>53.67</t>
-        </is>
-      </c>
-      <c r="BI29" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="BJ29" t="inlineStr">
-        <is>
-          <t>71.53</t>
-        </is>
+          <t>53.8</t>
+        </is>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
       </c>
       <c r="BK29" t="n">
         <v>0</v>
@@ -9244,21 +9220,21 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="B30" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C30" t="n">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -9283,8 +9259,10 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -9292,10 +9270,8 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -9431,23 +9407,17 @@
       </c>
       <c r="BG30" t="inlineStr">
         <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="BH30" t="inlineStr">
-        <is>
-          <t>55.05</t>
-        </is>
-      </c>
-      <c r="BI30" t="inlineStr">
-        <is>
-          <t>68.88</t>
-        </is>
-      </c>
-      <c r="BJ30" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
       </c>
       <c r="BK30" t="n">
         <v>0</v>
@@ -9497,21 +9467,21 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B31" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C31" t="n">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -9578,13 +9548,13 @@
       <c r="X31" t="n">
         <v>0</v>
       </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -9684,23 +9654,17 @@
       </c>
       <c r="BG31" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="BH31" t="inlineStr">
-        <is>
-          <t>56.86</t>
-        </is>
-      </c>
-      <c r="BI31" t="inlineStr">
-        <is>
-          <t>57.51</t>
-        </is>
-      </c>
-      <c r="BJ31" t="inlineStr">
-        <is>
-          <t>58.18</t>
-        </is>
+          <t>77.6</t>
+        </is>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
       </c>
       <c r="BK31" t="n">
         <v>0</v>
@@ -9750,21 +9714,21 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="B32" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C32" t="n">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -9783,7 +9747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -9825,8 +9789,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -9834,10 +9800,8 @@
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Z32" t="n">
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -9937,23 +9901,17 @@
       </c>
       <c r="BG32" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="BH32" t="inlineStr">
-        <is>
-          <t>66.1</t>
-        </is>
-      </c>
-      <c r="BI32" t="inlineStr">
-        <is>
-          <t>79.3</t>
-        </is>
-      </c>
-      <c r="BJ32" t="inlineStr">
-        <is>
-          <t>99.2</t>
-        </is>
+          <t>82.2</t>
+        </is>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
       </c>
       <c r="BK32" t="n">
         <v>0</v>
@@ -10003,21 +9961,21 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B33" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C33" t="n">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -10057,8 +10015,10 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10188,23 +10148,17 @@
       </c>
       <c r="BG33" t="inlineStr">
         <is>
-          <t>54.05</t>
-        </is>
-      </c>
-      <c r="BH33" t="inlineStr">
-        <is>
-          <t>49.88</t>
-        </is>
-      </c>
-      <c r="BI33" t="inlineStr">
-        <is>
-          <t>49.87</t>
-        </is>
-      </c>
-      <c r="BJ33" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
       </c>
       <c r="BK33" t="n">
         <v>0</v>
@@ -10254,21 +10208,21 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="B34" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C34" t="n">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -10295,7 +10249,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -10444,20 +10398,14 @@
           <t>64.4</t>
         </is>
       </c>
-      <c r="BH34" t="inlineStr">
-        <is>
-          <t>66.05</t>
-        </is>
-      </c>
-      <c r="BI34" t="inlineStr">
-        <is>
-          <t>78.25</t>
-        </is>
-      </c>
-      <c r="BJ34" t="inlineStr">
-        <is>
-          <t>95.9</t>
-        </is>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
       </c>
       <c r="BK34" t="n">
         <v>0</v>
@@ -10507,21 +10455,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -10558,10 +10506,8 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10590,8 +10536,10 @@
       <c r="X35" t="n">
         <v>0</v>
       </c>
-      <c r="Y35" t="n">
-        <v>0</v>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -10694,23 +10642,17 @@
       </c>
       <c r="BG35" t="inlineStr">
         <is>
-          <t>65.5</t>
-        </is>
-      </c>
-      <c r="BH35" t="inlineStr">
-        <is>
-          <t>64.34</t>
-        </is>
-      </c>
-      <c r="BI35" t="inlineStr">
-        <is>
-          <t>78.3</t>
-        </is>
-      </c>
-      <c r="BJ35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>68.2</t>
+        </is>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0</v>
       </c>
       <c r="BK35" t="n">
         <v>0</v>
@@ -10760,21 +10702,21 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B36" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -10808,10 +10750,8 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10837,8 +10777,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="n">
-        <v>0</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -10947,23 +10889,17 @@
       </c>
       <c r="BG36" t="inlineStr">
         <is>
-          <t>63.3</t>
-        </is>
-      </c>
-      <c r="BH36" t="inlineStr">
-        <is>
-          <t>64.14</t>
-        </is>
-      </c>
-      <c r="BI36" t="inlineStr">
-        <is>
-          <t>77.13</t>
-        </is>
-      </c>
-      <c r="BJ36" t="inlineStr">
-        <is>
-          <t>96.71</t>
-        </is>
+          <t>69.4</t>
+        </is>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
       </c>
       <c r="BK36" t="n">
         <v>0</v>
@@ -11013,21 +10949,21 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="B37" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ganapathy, N., Veeranki, Y. R., &amp; Swaminathan, R. (2020). Convolutional neural network based emotion classification using electrodermal activity signals and time-frequency features. Expert Systems with Applications, 159, 113571.</t>
+          <t>Thammasan, N., Hagad, J. L., Fukui, K. I., &amp; Numao, M. (2017, October). Multimodal stability-sensitive emotion recognition based on brainwave and physiological signals. In 2017 Seventh International Conference on Affective Computing and Intelligent Interaction Workshops and Demos (ACIIW) (pp. 44-49). IEEE.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -11046,17 +10982,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>HA, LA</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>HV, LV</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -11099,10 +11035,8 @@
       <c r="Y37" t="n">
         <v>0</v>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Z37" t="n">
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -11200,25 +11134,17 @@
       <c r="BF37" t="n">
         <v>0</v>
       </c>
-      <c r="BG37" t="inlineStr">
-        <is>
-          <t>63.28</t>
-        </is>
-      </c>
-      <c r="BH37" t="inlineStr">
-        <is>
-          <t>64.19</t>
-        </is>
-      </c>
-      <c r="BI37" t="inlineStr">
-        <is>
-          <t>77.25</t>
-        </is>
-      </c>
-      <c r="BJ37" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>0</v>
       </c>
       <c r="BK37" t="n">
         <v>0</v>
@@ -11259,8 +11185,10 @@
       <c r="BW37" t="n">
         <v>0</v>
       </c>
-      <c r="BX37" t="n">
-        <v>0</v>
+      <c r="BX37" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
       </c>
       <c r="BY37" t="n">
         <v>0</v>
@@ -11268,21 +11196,21 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="B38" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38" t="n">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tung, K., Liu, P. K., Chuang, Y. C., Wang, S. H., &amp; Wu, A. Y. A. (2018, December). Entropy-assisted multi-modal emotion recognition framework based on physiological signals. In 2018 IEEE-EMBS Conference on Biomedical Engineering and Sciences (IECBES) (pp. 22-26). IEEE.</t>
+          <t>Thammasan, N., Hagad, J. L., Fukui, K. I., &amp; Numao, M. (2017, October). Multimodal stability-sensitive emotion recognition based on brainwave and physiological signals. In 2017 Seventh International Conference on Affective Computing and Intelligent Interaction Workshops and Demos (ACIIW) (pp. 44-49). IEEE.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -11307,8 +11235,10 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11349,10 +11279,8 @@
       <c r="X38" t="n">
         <v>0</v>
       </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="Y38" t="n">
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -11459,10 +11387,8 @@
       <c r="BH38" t="n">
         <v>0</v>
       </c>
-      <c r="BI38" t="inlineStr">
-        <is>
-          <t>69.2</t>
-        </is>
+      <c r="BI38" t="n">
+        <v>0</v>
       </c>
       <c r="BJ38" t="n">
         <v>0</v>
@@ -11506,8 +11432,10 @@
       <c r="BW38" t="n">
         <v>0</v>
       </c>
-      <c r="BX38" t="n">
-        <v>0</v>
+      <c r="BX38" t="inlineStr">
+        <is>
+          <t>0.371</t>
+        </is>
       </c>
       <c r="BY38" t="n">
         <v>0</v>
@@ -11515,17 +11443,17 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tung, K., Liu, P. K., Chuang, Y. C., Wang, S. H., &amp; Wu, A. Y. A. (2018, December). Entropy-assisted multi-modal emotion recognition framework based on physiological signals. In 2018 IEEE-EMBS Conference on Biomedical Engineering and Sciences (IECBES) (pp. 22-26). IEEE.</t>
+          <t>Santamaria-Granados, L., Munoz-Organero, M., Ramirez-Gonzalez, G., Abdulhay, E., &amp; Arunkumar, N. J. I. A. (2018). Using deep convolutional neural network for emotion detection on a physiological signals dataset (AMIGOS). IEEE Access, 7, 57-67.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -11548,7 +11476,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -11596,17 +11524,17 @@
       <c r="X39" t="n">
         <v>0</v>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
@@ -11700,16 +11628,16 @@
       <c r="BF39" t="n">
         <v>0</v>
       </c>
-      <c r="BG39" t="n">
-        <v>0</v>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="BH39" t="n">
         <v>0</v>
       </c>
-      <c r="BI39" t="inlineStr">
-        <is>
-          <t>79.6</t>
-        </is>
+      <c r="BI39" t="n">
+        <v>0</v>
       </c>
       <c r="BJ39" t="n">
         <v>0</v>
@@ -11762,17 +11690,17 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="B40" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Santamaria-Granados, L., Munoz-Organero, M., Ramirez-Gonzalez, G., Abdulhay, E., &amp; Arunkumar, N. J. I. A. (2018). Using deep convolutional neural network for emotion detection on a physiological signals dataset (AMIGOS). IEEE Access, 7, 57-67.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -11816,44 +11744,44 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
@@ -11949,7 +11877,7 @@
       </c>
       <c r="BG40" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BH40" t="n">
@@ -12009,21 +11937,21 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="B41" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C41" t="n">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Ganapathy, N., &amp; Swaminathan, R. (2020). Emotion Analysis Using Electrodermal Signals and Spiking Deep Belief Network. In Digital Personalized Health and Medicine (pp. 1269-1270). IOS Press.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -12042,98 +11970,98 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
@@ -12196,17 +12124,21 @@
       </c>
       <c r="BG41" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="BH41" t="n">
-        <v>0</v>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>74.7</t>
+        </is>
       </c>
       <c r="BI41" t="n">
         <v>0</v>
       </c>
-      <c r="BJ41" t="n">
-        <v>0</v>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
       </c>
       <c r="BK41" t="n">
         <v>0</v>
@@ -12256,21 +12188,21 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="B42" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Ganapathy, N., &amp; Swaminathan, R. (2020). Emotion Analysis Using Electrodermal Signals and Spiking Deep Belief Network. In Digital Personalized Health and Medicine (pp. 1269-1270). IOS Press.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -12337,10 +12269,8 @@
       <c r="X42" t="n">
         <v>0</v>
       </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="Y42" t="n">
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -12378,8 +12308,10 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
-      <c r="AL42" t="n">
-        <v>0</v>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
@@ -12443,17 +12375,21 @@
       </c>
       <c r="BG42" t="inlineStr">
         <is>
-          <t>77.6</t>
-        </is>
-      </c>
-      <c r="BH42" t="n">
-        <v>0</v>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
       </c>
       <c r="BI42" t="n">
         <v>0</v>
       </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
       </c>
       <c r="BK42" t="n">
         <v>0</v>
@@ -12503,21 +12439,21 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>379</v>
+        <v>469</v>
       </c>
       <c r="B43" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C43" t="n">
-        <v>380</v>
+        <v>471</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -12536,7 +12472,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -12578,10 +12514,8 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="W43" t="n">
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -12592,8 +12526,10 @@
       <c r="Z43" t="n">
         <v>0</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
@@ -12690,7 +12626,7 @@
       </c>
       <c r="BG43" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>59.71</t>
         </is>
       </c>
       <c r="BH43" t="n">
@@ -12750,21 +12686,21 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="B44" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -12804,10 +12740,8 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P44" t="n">
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -12839,8 +12773,10 @@
       <c r="Z44" t="n">
         <v>0</v>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
@@ -12848,8 +12784,10 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" t="n">
-        <v>0</v>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -12937,7 +12875,7 @@
       </c>
       <c r="BG44" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>59.77</t>
         </is>
       </c>
       <c r="BH44" t="n">
@@ -12997,21 +12935,21 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>381</v>
+        <v>471</v>
       </c>
       <c r="B45" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -13036,10 +12974,8 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -13086,14 +13022,18 @@
       <c r="Z45" t="n">
         <v>0</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" t="n">
-        <v>0</v>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13184,7 +13124,7 @@
       </c>
       <c r="BG45" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>60.16</t>
         </is>
       </c>
       <c r="BH45" t="n">
@@ -13244,21 +13184,21 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="B46" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C46" t="n">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -13277,7 +13217,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -13325,16 +13265,16 @@
       <c r="X46" t="n">
         <v>0</v>
       </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="Y46" t="n">
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -13431,7 +13371,7 @@
       </c>
       <c r="BG46" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>59.78</t>
         </is>
       </c>
       <c r="BH46" t="n">
@@ -13491,21 +13431,21 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>383</v>
+        <v>473</v>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C47" t="n">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Chang, E. J., Rahimi, A., Benini, L., &amp; Wu, A. Y. A. (2019, March). Hyperdimensional computing-based multimodality emotion recognition with physiological signals. In 2019 IEEE International Conference on Artificial Intelligence Circuits and Systems (AICAS) (pp. 137-141). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -13524,7 +13464,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -13566,10 +13506,8 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="W47" t="n">
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -13580,8 +13518,10 @@
       <c r="Z47" t="n">
         <v>0</v>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
@@ -13589,8 +13529,10 @@
       <c r="AC47" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" t="n">
-        <v>0</v>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -13678,7 +13620,7 @@
       </c>
       <c r="BG47" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="BH47" t="n">
@@ -13738,21 +13680,21 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="B48" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C48" t="n">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thammasan, N., Hagad, J. L., Fukui, K. I., &amp; Numao, M. (2017, October). Multimodal stability-sensitive emotion recognition based on brainwave and physiological signals. In 2017 Seventh International Conference on Affective Computing and Intelligent Interaction Workshops and Demos (ACIIW) (pp. 44-49). IEEE.</t>
+          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -13777,64 +13719,66 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
       <c r="AB48" t="n">
         <v>0</v>
       </c>
-      <c r="AC48" t="n">
-        <v>0</v>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13923,8 +13867,10 @@
       <c r="BF48" t="n">
         <v>0</v>
       </c>
-      <c r="BG48" t="n">
-        <v>0</v>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
       </c>
       <c r="BH48" t="n">
         <v>0</v>
@@ -13974,10 +13920,8 @@
       <c r="BW48" t="n">
         <v>0</v>
       </c>
-      <c r="BX48" t="inlineStr">
-        <is>
-          <t>0.273</t>
-        </is>
+      <c r="BX48" t="n">
+        <v>0</v>
       </c>
       <c r="BY48" t="n">
         <v>0</v>
@@ -13985,21 +13929,21 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="B49" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C49" t="n">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thammasan, N., Hagad, J. L., Fukui, K. I., &amp; Numao, M. (2017, October). Multimodal stability-sensitive emotion recognition based on brainwave and physiological signals. In 2017 Seventh International Conference on Affective Computing and Intelligent Interaction Workshops and Demos (ACIIW) (pp. 44-49). IEEE.</t>
+          <t>Yin, G., Sun, S., Zhang, H., Yu, D., Li, C., Zhang, K., &amp; Zou, N. (2019, September). User Independent Emotion Recognition with Residual Signal-Image Network. In 2019 IEEE International Conference on Image Processing (ICIP) (pp. 3277-3281). IEEE.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14018,16 +13962,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="K49" t="n">
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -14074,8 +14016,10 @@
       <c r="Z49" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="AB49" t="n">
         <v>0</v>
@@ -14170,14 +14114,18 @@
       <c r="BF49" t="n">
         <v>0</v>
       </c>
-      <c r="BG49" t="n">
-        <v>0</v>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>55.92</t>
+        </is>
       </c>
       <c r="BH49" t="n">
         <v>0</v>
       </c>
-      <c r="BI49" t="n">
-        <v>0</v>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>58.83</t>
+        </is>
       </c>
       <c r="BJ49" t="n">
         <v>0</v>
@@ -14221,10 +14169,8 @@
       <c r="BW49" t="n">
         <v>0</v>
       </c>
-      <c r="BX49" t="inlineStr">
-        <is>
-          <t>0.371</t>
-        </is>
+      <c r="BX49" t="n">
+        <v>0</v>
       </c>
       <c r="BY49" t="n">
         <v>0</v>
@@ -14232,21 +14178,21 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="B50" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C50" t="n">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Santamaria-Granados, L., Munoz-Organero, M., Ramirez-Gonzalez, G., Abdulhay, E., &amp; Arunkumar, N. J. I. A. (2018). Using deep convolutional neural network for emotion detection on a physiological signals dataset (AMIGOS). IEEE Access, 7, 57-67.</t>
+          <t>Yin, G., Sun, S., Zhang, H., Yu, D., Li, C., Zhang, K., &amp; Zou, N. (2019, September). User Independent Emotion Recognition with Residual Signal-Image Network. In 2019 IEEE International Conference on Image Processing (ICIP) (pp. 3277-3281). IEEE.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -14321,7 +14267,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB50" t="n">
@@ -14419,14 +14365,16 @@
       </c>
       <c r="BG50" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>57.24</t>
         </is>
       </c>
       <c r="BH50" t="n">
         <v>0</v>
       </c>
-      <c r="BI50" t="n">
-        <v>0</v>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
       </c>
       <c r="BJ50" t="n">
         <v>0</v>
@@ -14479,21 +14427,21 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B51" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C51" t="n">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Santamaria-Granados, L., Munoz-Organero, M., Ramirez-Gonzalez, G., Abdulhay, E., &amp; Arunkumar, N. J. I. A. (2018). Using deep convolutional neural network for emotion detection on a physiological signals dataset (AMIGOS). IEEE Access, 7, 57-67.</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -14512,14 +14460,16 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -14566,10 +14516,8 @@
       <c r="Z51" t="n">
         <v>0</v>
       </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA51" t="n">
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
@@ -14664,10 +14612,8 @@
       <c r="BF51" t="n">
         <v>0</v>
       </c>
-      <c r="BG51" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="BG51" t="n">
+        <v>0</v>
       </c>
       <c r="BH51" t="n">
         <v>0</v>
@@ -14714,8 +14660,10 @@
       <c r="BV51" t="n">
         <v>0</v>
       </c>
-      <c r="BW51" t="n">
-        <v>0</v>
+      <c r="BW51" t="inlineStr">
+        <is>
+          <t>0.566</t>
+        </is>
       </c>
       <c r="BX51" t="n">
         <v>0</v>
@@ -14726,17 +14674,17 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="B52" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C52" t="n">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ganapathy, N., &amp; Swaminathan, R. (2020). Emotion Analysis Using Electrodermal Signals and Spiking Deep Belief Network. In Digital Personalized Health and Medicine (pp. 1269-1270). IOS Press.</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -14765,8 +14713,10 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -14846,10 +14796,8 @@
       <c r="AK52" t="n">
         <v>0</v>
       </c>
-      <c r="AL52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AL52" t="n">
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
@@ -14911,23 +14859,17 @@
       <c r="BF52" t="n">
         <v>0</v>
       </c>
-      <c r="BG52" t="inlineStr">
-        <is>
-          <t>72.08</t>
-        </is>
-      </c>
-      <c r="BH52" t="inlineStr">
-        <is>
-          <t>74.7</t>
-        </is>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
       </c>
       <c r="BI52" t="n">
         <v>0</v>
       </c>
-      <c r="BJ52" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
+      <c r="BJ52" t="n">
+        <v>0</v>
       </c>
       <c r="BK52" t="n">
         <v>0</v>
@@ -14965,8 +14907,10 @@
       <c r="BV52" t="n">
         <v>0</v>
       </c>
-      <c r="BW52" t="n">
-        <v>0</v>
+      <c r="BW52" t="inlineStr">
+        <is>
+          <t>0.555</t>
+        </is>
       </c>
       <c r="BX52" t="n">
         <v>0</v>
@@ -14977,17 +14921,17 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B53" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ganapathy, N., &amp; Swaminathan, R. (2020). Emotion Analysis Using Electrodermal Signals and Spiking Deep Belief Network. In Digital Personalized Health and Medicine (pp. 1269-1270). IOS Press.</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -15010,14 +14954,16 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>HV, LV</t>
+          <t>HA, LA</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -15097,10 +15043,8 @@
       <c r="AK53" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AL53" t="n">
+        <v>0</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
@@ -15162,23 +15106,17 @@
       <c r="BF53" t="n">
         <v>0</v>
       </c>
-      <c r="BG53" t="inlineStr">
-        <is>
-          <t>68.9</t>
-        </is>
-      </c>
-      <c r="BH53" t="inlineStr">
-        <is>
-          <t>50.96</t>
-        </is>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
       </c>
       <c r="BI53" t="n">
         <v>0</v>
       </c>
-      <c r="BJ53" t="inlineStr">
-        <is>
-          <t>61.26</t>
-        </is>
+      <c r="BJ53" t="n">
+        <v>0</v>
       </c>
       <c r="BK53" t="n">
         <v>0</v>
@@ -15216,8 +15154,10 @@
       <c r="BV53" t="n">
         <v>0</v>
       </c>
-      <c r="BW53" t="n">
-        <v>0</v>
+      <c r="BW53" t="inlineStr">
+        <is>
+          <t>0.587</t>
+        </is>
       </c>
       <c r="BX53" t="n">
         <v>0</v>
@@ -15228,17 +15168,17 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B54" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C54" t="n">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -15267,8 +15207,10 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -15315,10 +15257,8 @@
       <c r="Z54" t="n">
         <v>0</v>
       </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA54" t="n">
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -15413,10 +15353,8 @@
       <c r="BF54" t="n">
         <v>0</v>
       </c>
-      <c r="BG54" t="inlineStr">
-        <is>
-          <t>59.71</t>
-        </is>
+      <c r="BG54" t="n">
+        <v>0</v>
       </c>
       <c r="BH54" t="n">
         <v>0</v>
@@ -15463,8 +15401,10 @@
       <c r="BV54" t="n">
         <v>0</v>
       </c>
-      <c r="BW54" t="n">
-        <v>0</v>
+      <c r="BW54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
       </c>
       <c r="BX54" t="n">
         <v>0</v>
@@ -15475,17 +15415,17 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B55" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C55" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -15514,8 +15454,10 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -15562,10 +15504,8 @@
       <c r="Z55" t="n">
         <v>0</v>
       </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA55" t="n">
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -15573,10 +15513,8 @@
       <c r="AC55" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AD55" t="n">
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -15662,10 +15600,8 @@
       <c r="BF55" t="n">
         <v>0</v>
       </c>
-      <c r="BG55" t="inlineStr">
-        <is>
-          <t>59.77</t>
-        </is>
+      <c r="BG55" t="n">
+        <v>0</v>
       </c>
       <c r="BH55" t="n">
         <v>0</v>
@@ -15712,8 +15648,10 @@
       <c r="BV55" t="n">
         <v>0</v>
       </c>
-      <c r="BW55" t="n">
-        <v>0</v>
+      <c r="BW55" t="inlineStr">
+        <is>
+          <t>0.628</t>
+        </is>
       </c>
       <c r="BX55" t="n">
         <v>0</v>
@@ -15724,17 +15662,17 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B56" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C56" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -15757,14 +15695,16 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -15811,18 +15751,14 @@
       <c r="Z56" t="n">
         <v>0</v>
       </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA56" t="n">
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AC56" t="n">
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -15911,10 +15847,8 @@
       <c r="BF56" t="n">
         <v>0</v>
       </c>
-      <c r="BG56" t="inlineStr">
-        <is>
-          <t>60.16</t>
-        </is>
+      <c r="BG56" t="n">
+        <v>0</v>
       </c>
       <c r="BH56" t="n">
         <v>0</v>
@@ -15961,8 +15895,10 @@
       <c r="BV56" t="n">
         <v>0</v>
       </c>
-      <c r="BW56" t="n">
-        <v>0</v>
+      <c r="BW56" t="inlineStr">
+        <is>
+          <t>0.544</t>
+        </is>
       </c>
       <c r="BX56" t="n">
         <v>0</v>
@@ -15973,17 +15909,17 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B57" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C57" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -16012,8 +15948,10 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -16060,10 +15998,8 @@
       <c r="Z57" t="n">
         <v>0</v>
       </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA57" t="n">
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -16158,10 +16094,8 @@
       <c r="BF57" t="n">
         <v>0</v>
       </c>
-      <c r="BG57" t="inlineStr">
-        <is>
-          <t>59.78</t>
-        </is>
+      <c r="BG57" t="n">
+        <v>0</v>
       </c>
       <c r="BH57" t="n">
         <v>0</v>
@@ -16208,8 +16142,10 @@
       <c r="BV57" t="n">
         <v>0</v>
       </c>
-      <c r="BW57" t="n">
-        <v>0</v>
+      <c r="BW57" t="inlineStr">
+        <is>
+          <t>0.535</t>
+        </is>
       </c>
       <c r="BX57" t="n">
         <v>0</v>
@@ -16220,17 +16156,17 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B58" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -16259,8 +16195,10 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -16307,10 +16245,8 @@
       <c r="Z58" t="n">
         <v>0</v>
       </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA58" t="n">
+        <v>0</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -16318,10 +16254,8 @@
       <c r="AC58" t="n">
         <v>0</v>
       </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AD58" t="n">
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -16407,10 +16341,8 @@
       <c r="BF58" t="n">
         <v>0</v>
       </c>
-      <c r="BG58" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="BG58" t="n">
+        <v>0</v>
       </c>
       <c r="BH58" t="n">
         <v>0</v>
@@ -16457,8 +16389,10 @@
       <c r="BV58" t="n">
         <v>0</v>
       </c>
-      <c r="BW58" t="n">
-        <v>0</v>
+      <c r="BW58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
       </c>
       <c r="BX58" t="n">
         <v>0</v>
@@ -16469,17 +16403,17 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B59" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C59" t="n">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Susanto, I. Y., Pan, T. Y., Chen, C. W., Hu, M. C., &amp; Cheng, W. H. (2020, June). Emotion recognition from galvanic skin response signal based on deep hybrid neural networks. In Proceedings of the 2020 International Conference on Multimedia Retrieval (pp. 341-345).</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -16508,8 +16442,10 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -16556,18 +16492,14 @@
       <c r="Z59" t="n">
         <v>0</v>
       </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AA59" t="n">
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="AC59" t="n">
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -16656,10 +16588,8 @@
       <c r="BF59" t="n">
         <v>0</v>
       </c>
-      <c r="BG59" t="inlineStr">
-        <is>
-          <t>60.47</t>
-        </is>
+      <c r="BG59" t="n">
+        <v>0</v>
       </c>
       <c r="BH59" t="n">
         <v>0</v>
@@ -16706,8 +16636,10 @@
       <c r="BV59" t="n">
         <v>0</v>
       </c>
-      <c r="BW59" t="n">
-        <v>0</v>
+      <c r="BW59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
       </c>
       <c r="BX59" t="n">
         <v>0</v>
@@ -16718,17 +16650,17 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B60" t="n">
         <v>95</v>
       </c>
       <c r="C60" t="n">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Yin, G., Sun, S., Zhang, H., Yu, D., Li, C., Zhang, K., &amp; Zou, N. (2019, September). User Independent Emotion Recognition with Residual Signal-Image Network. In 2019 IEEE International Conference on Image Processing (ICIP) (pp. 3277-3281). IEEE.</t>
+          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -16757,8 +16689,10 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -16805,10 +16739,8 @@
       <c r="Z60" t="n">
         <v>0</v>
       </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="AA60" t="n">
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
@@ -16903,18 +16835,14 @@
       <c r="BF60" t="n">
         <v>0</v>
       </c>
-      <c r="BG60" t="inlineStr">
-        <is>
-          <t>55.92</t>
-        </is>
+      <c r="BG60" t="n">
+        <v>0</v>
       </c>
       <c r="BH60" t="n">
         <v>0</v>
       </c>
-      <c r="BI60" t="inlineStr">
-        <is>
-          <t>58.83</t>
-        </is>
+      <c r="BI60" t="n">
+        <v>0</v>
       </c>
       <c r="BJ60" t="n">
         <v>0</v>
@@ -16955,8 +16883,10 @@
       <c r="BV60" t="n">
         <v>0</v>
       </c>
-      <c r="BW60" t="n">
-        <v>0</v>
+      <c r="BW60" t="inlineStr">
+        <is>
+          <t>0.567</t>
+        </is>
       </c>
       <c r="BX60" t="n">
         <v>0</v>
@@ -16967,17 +16897,17 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B61" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" t="n">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yin, G., Sun, S., Zhang, H., Yu, D., Li, C., Zhang, K., &amp; Zou, N. (2019, September). User Independent Emotion Recognition with Residual Signal-Image Network. In 2019 IEEE International Conference on Image Processing (ICIP) (pp. 3277-3281). IEEE.</t>
+          <t>Kołodziej, M., Tarnowski, P., Majkowski, A., &amp; Rak, R. J. (2019). Electrodermal activity measurements for detection of emotional arousal. Bulletin of the Polish Academy of Sciences. Technical Sciences, 67(4).</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -17006,8 +16936,10 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -17054,10 +16986,8 @@
       <c r="Z61" t="n">
         <v>0</v>
       </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="AA61" t="n">
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
         <v>0</v>
@@ -17154,22 +17084,28 @@
       </c>
       <c r="BG61" t="inlineStr">
         <is>
-          <t>57.24</t>
-        </is>
-      </c>
-      <c r="BH61" t="n">
-        <v>0</v>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="BH61" t="inlineStr">
+        <is>
+          <t>78.38</t>
+        </is>
       </c>
       <c r="BI61" t="inlineStr">
         <is>
-          <t>60.12</t>
-        </is>
-      </c>
-      <c r="BJ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>0</v>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="BJ61" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="BK61" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
       </c>
       <c r="BL61" t="n">
         <v>0</v>
@@ -17216,21 +17152,21 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B62" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C62" t="n">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
+          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -17249,7 +17185,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -17407,8 +17343,10 @@
       <c r="BH62" t="n">
         <v>0</v>
       </c>
-      <c r="BI62" t="n">
-        <v>0</v>
+      <c r="BI62" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="BJ62" t="n">
         <v>0</v>
@@ -17449,10 +17387,8 @@
       <c r="BV62" t="n">
         <v>0</v>
       </c>
-      <c r="BW62" t="inlineStr">
-        <is>
-          <t>0.566</t>
-        </is>
+      <c r="BW62" t="n">
+        <v>0</v>
       </c>
       <c r="BX62" t="n">
         <v>0</v>
@@ -17463,21 +17399,21 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B63" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C63" t="n">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
+          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -17496,32 +17432,32 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>HA, LA</t>
+          <t>HV, LV</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
@@ -17654,8 +17590,10 @@
       <c r="BH63" t="n">
         <v>0</v>
       </c>
-      <c r="BI63" t="n">
-        <v>0</v>
+      <c r="BI63" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="BJ63" t="n">
         <v>0</v>
@@ -17696,10 +17634,8 @@
       <c r="BV63" t="n">
         <v>0</v>
       </c>
-      <c r="BW63" t="inlineStr">
-        <is>
-          <t>0.555</t>
-        </is>
+      <c r="BW63" t="n">
+        <v>0</v>
       </c>
       <c r="BX63" t="n">
         <v>0</v>
@@ -17710,21 +17646,21 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B64" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C64" t="n">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
+          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -17901,8 +17837,10 @@
       <c r="BH64" t="n">
         <v>0</v>
       </c>
-      <c r="BI64" t="n">
-        <v>0</v>
+      <c r="BI64" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="BJ64" t="n">
         <v>0</v>
@@ -17943,10 +17881,8 @@
       <c r="BV64" t="n">
         <v>0</v>
       </c>
-      <c r="BW64" t="inlineStr">
-        <is>
-          <t>0.587</t>
-        </is>
+      <c r="BW64" t="n">
+        <v>0</v>
       </c>
       <c r="BX64" t="n">
         <v>0</v>
@@ -17957,21 +17893,21 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B65" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C65" t="n">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
+          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -17996,26 +17932,26 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
@@ -18148,8 +18084,10 @@
       <c r="BH65" t="n">
         <v>0</v>
       </c>
-      <c r="BI65" t="n">
-        <v>0</v>
+      <c r="BI65" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="BJ65" t="n">
         <v>0</v>
@@ -18190,2991 +18128,13 @@
       <c r="BV65" t="n">
         <v>0</v>
       </c>
-      <c r="BW65" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
+      <c r="BW65" t="n">
+        <v>0</v>
       </c>
       <c r="BX65" t="n">
         <v>0</v>
       </c>
       <c r="BY65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B66" t="n">
-        <v>96</v>
-      </c>
-      <c r="C66" t="n">
-        <v>486</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>HA, LA</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW66" t="inlineStr">
-        <is>
-          <t>0.628</t>
-        </is>
-      </c>
-      <c r="BX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B67" t="n">
-        <v>96</v>
-      </c>
-      <c r="C67" t="n">
-        <v>487</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW67" t="inlineStr">
-        <is>
-          <t>0.544</t>
-        </is>
-      </c>
-      <c r="BX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B68" t="n">
-        <v>96</v>
-      </c>
-      <c r="C68" t="n">
-        <v>488</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW68" t="inlineStr">
-        <is>
-          <t>0.535</t>
-        </is>
-      </c>
-      <c r="BX68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B69" t="n">
-        <v>96</v>
-      </c>
-      <c r="C69" t="n">
-        <v>489</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW69" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="BX69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B70" t="n">
-        <v>96</v>
-      </c>
-      <c r="C70" t="n">
-        <v>490</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW70" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="BX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B71" t="n">
-        <v>96</v>
-      </c>
-      <c r="C71" t="n">
-        <v>491</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Yang, H. C., &amp; Lee, C. C. (2019, September). Annotation matters: A comprehensive study on recognizing intended, self-reported, and observed emotion labels using physiology. In 2019 8th International Conference on Affective Computing and Intelligent Interaction (ACII) (pp. 1-7). IEEE.</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW71" t="inlineStr">
-        <is>
-          <t>0.567</t>
-        </is>
-      </c>
-      <c r="BX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B72" t="n">
-        <v>98</v>
-      </c>
-      <c r="C72" t="n">
-        <v>493</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Ganapathy, N., &amp; Swaminathan, R. (2019). Emotion Recognition Using Electrodermal Activity Signals and Multiscale Deep Convolution Neural Network. Studies in health technology and informatics, 258, 140-140.</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>HA, LA</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="inlineStr">
-        <is>
-          <t>65.63</t>
-        </is>
-      </c>
-      <c r="BH72" t="inlineStr">
-        <is>
-          <t>65.76</t>
-        </is>
-      </c>
-      <c r="BI72" t="inlineStr">
-        <is>
-          <t>72.63</t>
-        </is>
-      </c>
-      <c r="BJ72" t="inlineStr">
-        <is>
-          <t>81.11</t>
-        </is>
-      </c>
-      <c r="BK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B73" t="n">
-        <v>98</v>
-      </c>
-      <c r="C73" t="n">
-        <v>494</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Ganapathy, N., &amp; Swaminathan, R. (2019). Emotion Recognition Using Electrodermal Activity Signals and Multiscale Deep Convolution Neural Network. Studies in health technology and informatics, 258, 140-140.</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="inlineStr">
-        <is>
-          <t>68.75</t>
-        </is>
-      </c>
-      <c r="BH73" t="inlineStr">
-        <is>
-          <t>45.41</t>
-        </is>
-      </c>
-      <c r="BI73" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="BJ73" t="inlineStr">
-        <is>
-          <t>55.6</t>
-        </is>
-      </c>
-      <c r="BK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B74" t="n">
-        <v>99</v>
-      </c>
-      <c r="C74" t="n">
-        <v>495</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI74" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="BJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B75" t="n">
-        <v>99</v>
-      </c>
-      <c r="C75" t="n">
-        <v>496</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>HV, LV</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI75" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="BJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B76" t="n">
-        <v>99</v>
-      </c>
-      <c r="C76" t="n">
-        <v>497</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>HA, LA</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI76" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="BJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B77" t="n">
-        <v>99</v>
-      </c>
-      <c r="C77" t="n">
-        <v>498</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Subramanian, R., Wache, J., Abadi, M. K., Vieriu, R. L., Winkler, S., &amp; Sebe, N. (2016). ASCERTAIN: Emotion and personality recognition using commercial sensors. IEEE Transactions on Affective Computing, 9(2), 147-160.</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>HA, LA</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI77" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="BJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY77" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/analisis_estadistico.xlsx
+++ b/data/analisis_estadistico.xlsx
@@ -7744,7 +7744,7 @@
         <v>63</v>
       </c>
       <c r="C24" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>74</v>
       </c>
       <c r="C30" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>74</v>
       </c>
       <c r="C31" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>74</v>
       </c>
       <c r="C32" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>74</v>
       </c>
       <c r="C34" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>76</v>
       </c>
       <c r="C38" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>91</v>
       </c>
       <c r="C43" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>91</v>
       </c>
       <c r="C46" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>91</v>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>91</v>
       </c>
       <c r="C48" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>94</v>
       </c>
       <c r="C49" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>94</v>
       </c>
       <c r="C50" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>95</v>
       </c>
       <c r="C51" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>95</v>
       </c>
       <c r="C52" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>95</v>
       </c>
       <c r="C54" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>95</v>
       </c>
       <c r="C55" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>95</v>
       </c>
       <c r="C56" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>95</v>
       </c>
       <c r="C57" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>95</v>
       </c>
       <c r="C58" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>95</v>
       </c>
       <c r="C59" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>95</v>
       </c>
       <c r="C60" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>96</v>
       </c>
       <c r="C61" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>98</v>
       </c>
       <c r="C62" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>98</v>
       </c>
       <c r="C63" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>98</v>
       </c>
       <c r="C64" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>98</v>
       </c>
       <c r="C65" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
